--- a/biology/Botanique/Salix_moupinensis/Salix_moupinensis.xlsx
+++ b/biology/Botanique/Salix_moupinensis/Salix_moupinensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix moupinensis est une espèce de saules de la famille des salicacées, originaire de Chine, proposée comme plante ornementale en jardinerie.
 </t>
@@ -511,10 +523,12 @@
           <t>Synonymie et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Salix moupinensis v. elliptica, Gorz, 1935 ;
-Salix moupinensis v. obovata, Gorz, 1935[1].</t>
+Salix moupinensis v. obovata, Gorz, 1935.</t>
         </is>
       </c>
     </row>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Salix moupinensis est  bien différent des autres saules. Il a de grandes feuilles brillantes, allongées, fortement nervurées, de 13 à 6 cm de long, duveteuses le long des nervures quand elles sont jeunes. De chaque côté de la nervure centrale, on dénombre 15 nervures latérales. Les feuilles sont portées par des rameaux rouge-vin très lisses et brillants. Ses longs chatons (jusqu'à 6 cm)apparaissent tôt au printemps et sont érigés sur un pédoncule de 1 à 2 cm, avec de longues bractées elliptiques parfois duveteuses. C'est un saule à croissance lente, formant un arbuste de 1,5 à 2 m environ en tous sens, en plusieurs années. Sa taille adulte atteint 3 m ou plus. La floraison intervient en avril-mai pour une fructification en juin. La plante se rencontre en Chine, dans les provinces  du Sichuan (ouest) et du Yunnan (au nord), dans des régions montagneuses, à une altitude comprise entre 1500 et 3000 m[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Salix moupinensis est  bien différent des autres saules. Il a de grandes feuilles brillantes, allongées, fortement nervurées, de 13 à 6 cm de long, duveteuses le long des nervures quand elles sont jeunes. De chaque côté de la nervure centrale, on dénombre 15 nervures latérales. Les feuilles sont portées par des rameaux rouge-vin très lisses et brillants. Ses longs chatons (jusqu'à 6 cm)apparaissent tôt au printemps et sont érigés sur un pédoncule de 1 à 2 cm, avec de longues bractées elliptiques parfois duveteuses. C'est un saule à croissance lente, formant un arbuste de 1,5 à 2 m environ en tous sens, en plusieurs années. Sa taille adulte atteint 3 m ou plus. La floraison intervient en avril-mai pour une fructification en juin. La plante se rencontre en Chine, dans les provinces  du Sichuan (ouest) et du Yunnan (au nord), dans des régions montagneuses, à une altitude comprise entre 1500 et 3000 m.
 </t>
         </is>
       </c>
